--- a/modules/Ai_News_Section/articles/articles.xlsx
+++ b/modules/Ai_News_Section/articles/articles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -852,7 +852,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Easterlies at localized thunderstorms, posibleng magpaulan sa ilang bahagi ng bansa ngayong weekend</t>
+          <t>Pagasa sees fair weather in next 2 days</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -862,29 +862,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.gmanetwork.com/news/video/24oras/642954/easterlies-at-localized-thunderstorms-posibleng-magpaulan-sa-ilang-bahagi-ng-bansa-ngayong-weekend-weather-november-10-2023/video/</t>
+          <t>https://newsinfo.inquirer.net/1858192/pagasa-sees-fair-weather-in-next-2-days</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maureen Schrijvers</t>
+          <t>Russel P. Loreto</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GMA News</t>
+          <t>Inquirer</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>external/gma.png</t>
+          <t>external/inquirer.png</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pagasa sees fair weather in next 2 days</t>
+          <t>Easterlies at localized thunderstorms, posibleng magpaulan sa ilang bahagi ng bansa ngayong weekend</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -894,29 +894,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://newsinfo.inquirer.net/1858192/pagasa-sees-fair-weather-in-next-2-days</t>
+          <t>https://www.gmanetwork.com/news/video/24oras/642954/easterlies-at-localized-thunderstorms-posibleng-magpaulan-sa-ilang-bahagi-ng-bansa-ngayong-weekend-weather-november-10-2023/video/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Russel P. Loreto</t>
+          <t>Maureen Schrijvers</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inquirer</t>
+          <t>GMA News</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>external/inquirer.png</t>
+          <t>external/gma.png</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>'Generally good weather' to prevail this weekend; brewing storm forecast next week: PAGASA</t>
+          <t>'Fair, hot' weather expected over most of PH this weekend</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://news.abs-cbn.com/news/11/10/23/good-weather-to-prevail-this-weekend-brewing-storm-forecast-next-week</t>
+          <t>https://news.abs-cbn.com/news/11/10/23/fair-hot-weather-expected-over-most-of-ph-this-weekend</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ariel Rojas</t>
+          <t>ABS-CBN News</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -948,7 +948,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>'Fair, hot' weather expected over most of PH this weekend</t>
+          <t>'Generally good weather' to prevail this weekend; brewing storm forecast next week: PAGASA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://news.abs-cbn.com/news/11/10/23/fair-hot-weather-expected-over-most-of-ph-this-weekend</t>
+          <t>https://news.abs-cbn.com/news/11/10/23/good-weather-to-prevail-this-weekend-brewing-storm-forecast-next-week</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ABS-CBN News</t>
+          <t>Ariel Rojas</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1171,131 +1171,387 @@
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
+        <is>
+          <t>Shear line, LPA’s trough bringing heavy rain to parts of Visayas</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/nation/weather/shear-line-low-pressure-area-update-pagasa-forecast-november-18-2023-4pm/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Acor Arceo</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Rappler</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>external/rapppler.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3 weather systems to dampen most of PH</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.pna.gov.ph/articles/1213909</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Jose Cielito Reganit</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>PNA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>external/pna.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Shear line, Amihan to bring rains over Luzon, parts of Visayas</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.gmanetwork.com/news/scitech/weather/888772/shear-line-amihan-to-bring-rains-over-luzon-parts-of-visayas/story/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>BAP/KG</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>GMA News</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>external/gma.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>2 LPAs being monitored by Pagasa have low chances of becoming storms
 Read more: https://newsinfo.inquirer.net/1861817/2-lpas-being-monitored-by-pagasa-have-low-chances-of-becoming-storms#ixzz8JOstnnEJ
 Follow us: @inquirerdotnet on Twitter | inquirerdotnet on Facebook</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>2023-11-18</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://newsinfo.inquirer.net/1861817/2-lpas-being-monitored-by-pagasa-have-low-chances-of-becoming-storms</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Angeline Marcelino</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Inquirer</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>external/inquirer.png</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Shear line, Amihan to bring rains over Luzon, parts of Visayas</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2023-11-18</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://www.gmanetwork.com/news/scitech/weather/888772/shear-line-amihan-to-bring-rains-over-luzon-parts-of-visayas/story/</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>BAP/KG</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Extreme rainfall increases exponentially with global warming: study</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://news.abs-cbn.com/spotlight/11/28/23/extreme-rainfall-increases-exponentially-with-global-warming-study</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Agence France-Presse</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ABS-CBN News</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>external/abs_cbn.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PAGASA forecasts drought in some provinces in December</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.pna.gov.ph/articles/1214656</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Ma. Cristina Arayata</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>PNA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>external/pna.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Amihan to bring clouds, rains to Northern, Central Luzon</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.gmanetwork.com/news/scitech/weather/890172/amihanto-bring-clouds-rains-to-northern-central-luzon/story/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Jiselle Anne Casucian</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>GMA News</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>external/gma.png</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>3 weather systems to dampen most of PH</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2023-11-18</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://www.pna.gov.ph/articles/1213909</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ilang probinsiya sa Pilipinas, makakaranas ng tagtuyot ngayong Disyembre</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.gmanetwork.com/news/video/balitanghali/645234/ilang-probinsiya-sa-pilipinas-makakaranas-ng-tagtuyot-ngayong-disyembre/video/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GMA Integrated News</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>GMA News</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>external/gma.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Easterlies, ‘amihan’ to bring isolated rains over parts of PH</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.pna.gov.ph/articles/1214731</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Jose Cielito Reganit</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>PNA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>external/pna.png</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Shear line, LPA’s trough bringing heavy rain to parts of Visayas</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2023-11-18</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://www.rappler.com/nation/weather/shear-line-low-pressure-area-update-pagasa-forecast-november-18-2023-4pm/</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Acor Arceo</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Rappler</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>external/rapppler.png</t>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PAGASA: Amihan at Easterlies, magpapaulan sa ilang bahagi ng bansa</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.gmanetwork.com/news/video/gma7specials/645342/pagasa-amihan-at-easterlies-magpapaulan-sa-ilang-bahagi-ng-bansa-gma-integrated-news-bulletin/video/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GMA Integrated News</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>GMA News</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>external/gma.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Northeast Monsoon to bring rains over parts of Luzo</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.gmanetwork.com/news/scitech/weather/890180/northeast-monsoon-to-bring-rains-over-parts-of-luzon/story/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GMA Integrated News</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>GMA News</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>external/gma.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Most parts of PH will be fair on Saturday, says Pagasa</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://newsinfo.inquirer.net/1869243/most-parts-of-ph-will-be-fair-on-saturday-says-pagasa?utm_source=(direct)&amp;utm_medium=gallery</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Angeline Marcelino</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Inquirer</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>external/inquirer.png</t>
         </is>
       </c>
     </row>
